--- a/biology/Microbiologie/Conoidasida/Conoidasida.xlsx
+++ b/biology/Microbiologie/Conoidasida/Conoidasida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Conoidasida sont une classe de micro-organismes de l'embranchement des apicomplexes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des Conoidasida a été créée en 1988 par le microbiologiste américain Norman Dion Levine (d) (1912-1999)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des Conoidasida a été créée en 1988 par le microbiologiste américain Norman Dion Levine (d) (1912-1999),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-classes et ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 octobre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 octobre 2022) :
 sous-classe Coccidia
 ordre Agamococcidiorida
 ordre Eucoccidiorida
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Norman Dion Levine, The protozoan phylum Apicomplexa, CRC Press, 1988 (ISBN 0-8493-4653-3 et 0-8493-4654-1, LCCN 87008005)</t>
         </is>
